--- a/Data/Forecasts/IDA1/2023-12-04_exo[].xlsx
+++ b/Data/Forecasts/IDA1/2023-12-04_exo[].xlsx
@@ -454,7 +454,7 @@
         <v>45264</v>
       </c>
       <c r="B2" t="n">
-        <v>86.2918701171875</v>
+        <v>83.35874938964844</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45264.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>86.71395111083984</v>
+        <v>86.41961669921875</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45264.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>97.0838623046875</v>
+        <v>92.64990997314453</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45264.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>94.97365570068359</v>
+        <v>86.445068359375</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45264.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>94.31243133544922</v>
+        <v>88.36775207519531</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45264.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>95.12186431884766</v>
+        <v>88.94989013671875</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45264.125</v>
       </c>
       <c r="B8" t="n">
-        <v>99.91798400878906</v>
+        <v>91.51444244384766</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45264.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>98.02948760986328</v>
+        <v>89.83090209960938</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45264.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>94.9715576171875</v>
+        <v>90.57490539550781</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45264.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>91.2896728515625</v>
+        <v>88.1199951171875</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45264.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>84.31490325927734</v>
+        <v>85.32036590576172</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45264.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>88.51402282714844</v>
+        <v>88.16629028320312</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45264.25</v>
       </c>
       <c r="B14" t="n">
-        <v>92.55233001708984</v>
+        <v>89.97152709960938</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45264.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>103.0032043457031</v>
+        <v>97.57882690429688</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45264.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>99.67214965820312</v>
+        <v>101.703010559082</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45264.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>130.676513671875</v>
+        <v>130.7038269042969</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45264.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>120.4736099243164</v>
+        <v>119.657829284668</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45264.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>131.6120452880859</v>
+        <v>130.9811401367188</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45264.375</v>
       </c>
       <c r="B20" t="n">
-        <v>123.7054138183594</v>
+        <v>122.4703216552734</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45264.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>126.5471343994141</v>
+        <v>125.109733581543</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45264.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>133.3246307373047</v>
+        <v>128.1146545410156</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45264.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>128.6716461181641</v>
+        <v>124.8055953979492</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45264.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>133.3301696777344</v>
+        <v>128.6350860595703</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45264.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>134.3257904052734</v>
+        <v>127.1221694946289</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45264.5</v>
       </c>
       <c r="B26" t="n">
-        <v>139.5743713378906</v>
+        <v>128.81396484375</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45264.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>137.3723754882812</v>
+        <v>127.8924179077148</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45264.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>140.0694732666016</v>
+        <v>129.3748626708984</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45264.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>127.8643798828125</v>
+        <v>119.1679153442383</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45264.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>133.6393890380859</v>
+        <v>124.4697036743164</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45264.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>137.553955078125</v>
+        <v>128.1420135498047</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45264.625</v>
       </c>
       <c r="B32" t="n">
-        <v>142.7136383056641</v>
+        <v>134.3809509277344</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45264.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>165.1630706787109</v>
+        <v>155.2132110595703</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45264.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>157.2930603027344</v>
+        <v>151.1870422363281</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45264.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>201.1208343505859</v>
+        <v>185.3318481445312</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45264.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>199.0687866210938</v>
+        <v>193.1765594482422</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45264.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>200.5437469482422</v>
+        <v>197.3113403320312</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45264.75</v>
       </c>
       <c r="B38" t="n">
-        <v>186.4898376464844</v>
+        <v>180.9517211914062</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45264.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>165.1944427490234</v>
+        <v>164.3877410888672</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45264.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>153.5689086914062</v>
+        <v>144.8467864990234</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45264.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>134.0295562744141</v>
+        <v>129.5536651611328</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45264.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>130.2176513671875</v>
+        <v>124.5020446777344</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45264.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>110.1414794921875</v>
+        <v>105.2759170532227</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45264.875</v>
       </c>
       <c r="B44" t="n">
-        <v>121.0102386474609</v>
+        <v>109.5275650024414</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45264.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>102.0771484375</v>
+        <v>92.63798522949219</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45264.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>104.0956649780273</v>
+        <v>94.91640472412109</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45264.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>86.16265869140625</v>
+        <v>80.40143585205078</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45264.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>100.6775512695312</v>
+        <v>94.48168182373047</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45264.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>89.75344848632812</v>
+        <v>85.59923553466797</v>
       </c>
     </row>
   </sheetData>
